--- a/order/MBSE Demonstrator Materialliste.xlsx
+++ b/order/MBSE Demonstrator Materialliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimeiners/Documents/courses/prj/sose23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimeiners/Documents/courses/prj/sose23/gimbal/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0A4A9-D614-5943-8F5F-71D376569B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D877E4-56AA-804E-851B-61EF714DF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="600" windowWidth="36840" windowHeight="23340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +152,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,12 +182,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -184,8 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -468,7 +499,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,7 +575,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <f>F4*G4</f>
         <v>2.99</v>
       </c>
@@ -586,7 +617,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <f>F6*G6</f>
         <v>4.1500000000000004</v>
       </c>
@@ -607,7 +638,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <f t="shared" ref="H7:H10" si="0">F7*G7</f>
         <v>0.99</v>
       </c>
@@ -628,7 +659,7 @@
       <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>19.600000000000001</v>
       </c>
@@ -717,7 +748,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -733,7 +764,7 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <f>F13*G13</f>
         <v>20.99</v>
       </c>

--- a/order/MBSE Demonstrator Materialliste.xlsx
+++ b/order/MBSE Demonstrator Materialliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimeiners/Documents/courses/prj/sose23/gimbal/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D877E4-56AA-804E-851B-61EF714DF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3E5C6-675B-D640-83DA-7CA677596E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="600" windowWidth="36840" windowHeight="23340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Bestellliste MBSE Demonstrator (Arduino Gimbal)</t>
   </si>
@@ -99,27 +99,9 @@
     <t>ARDUINO NANO</t>
   </si>
   <si>
-    <t>Prusament PLA Pruse Orange 1kg</t>
-  </si>
-  <si>
-    <t>Prusa3d</t>
-  </si>
-  <si>
-    <t>PRM-PLA-PRO-1000</t>
-  </si>
-  <si>
-    <t>Breadboard Kit</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>MG996R Servos</t>
-  </si>
-  <si>
-    <t>MPU-6050 Gyro</t>
-  </si>
-  <si>
     <t>Packungseinheit 3 Stk.</t>
   </si>
   <si>
@@ -127,6 +109,18 @@
   </si>
   <si>
     <t>Pemenol DC/DC Converter</t>
+  </si>
+  <si>
+    <t>Eckstein GmbH</t>
+  </si>
+  <si>
+    <t>MakerShop</t>
+  </si>
+  <si>
+    <t>NodeMCU V3 Base Plate I/O Breakout Sensor</t>
+  </si>
+  <si>
+    <t>NodeMCU V3.4 ESP8266 ESP-12 E Lua CH340</t>
   </si>
 </sst>
 </file>
@@ -136,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +150,42 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D2A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -213,7 +243,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
@@ -496,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -575,232 +615,247 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f>F4*G4</f>
         <v>2.99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
-        <v>9.9499999999999993</v>
+        <v>8.99</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <f>F5*G5</f>
-        <v>29.849999999999998</v>
+        <v>8.99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <f>F6*G6</f>
+        <v>29.849999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <f>F7*G7</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20.99</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <f>F8*G8</f>
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F9" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <f>F6*G6</f>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <f>F9*G9</f>
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10.85</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <f>F10*G10</f>
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F11" s="3">
         <v>0.99</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" ref="H7:H10" si="0">F7*G7</f>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ref="H11:H15" si="0">F11*G11</f>
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F12" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G8">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F13" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3">
-        <v>29.99</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
+    <row r="14" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>3771</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3">
-        <v>11.99</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <f>F11*G11</f>
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10.85</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <f>F12*G12</f>
-        <v>10.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>7779</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3">
-        <v>20.99</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <f>F13*G13</f>
-        <v>20.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <f>F14*G14</f>
-        <v>8.99</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="3">
-        <f>SUM(H4,H6,H7,H8,H13)</f>
-        <v>48.72</v>
-      </c>
+      <c r="F15" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -808,19 +863,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{1F0E3166-57BC-4A64-B8CC-83A7F4B86F5C}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{552B7B4B-39D8-4904-AF9B-9BDAC1FC48D4}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{6033C8D3-346F-4950-8118-4E678F9565F6}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{8192E377-2537-40A1-B8C4-35747E0BF990}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{2CE79787-8A22-4989-85EC-0542B8D9B265}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{B32DAEFE-22B2-4FAB-8149-A2A6C870FE37}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{7BF276C2-EC57-4088-8A5F-0FCEE2BEC9C5}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{7F6E16F0-2DA6-2940-8C81-9C1132B7ED2A}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{6B50F683-26C4-7F40-921A-740545D3FEE3}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{0A708874-9C83-794D-BFAB-CDD1C5F9BDEB}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{D84C79C8-C0D9-274E-B175-2FD324175E2E}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{2A078CD3-BEB5-2D44-8620-B9DF83418657}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{552B7B4B-39D8-4904-AF9B-9BDAC1FC48D4}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{6033C8D3-346F-4950-8118-4E678F9565F6}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{2CE79787-8A22-4989-85EC-0542B8D9B265}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{B32DAEFE-22B2-4FAB-8149-A2A6C870FE37}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{6B50F683-26C4-7F40-921A-740545D3FEE3}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{0A708874-9C83-794D-BFAB-CDD1C5F9BDEB}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{D84C79C8-C0D9-274E-B175-2FD324175E2E}"/>
+    <hyperlink ref="J5" r:id="rId9" xr:uid="{2A078CD3-BEB5-2D44-8620-B9DF83418657}"/>
+    <hyperlink ref="D7" r:id="rId10" tooltip="Eckstein GmbH" xr:uid="{C4DAEC95-BA8A-5540-B4E3-214EE6479294}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{8192E377-2537-40A1-B8C4-35747E0BF990}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{7B9E4682-EA73-8847-A319-7F74BFB93473}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{966BB6C8-F765-1E49-B15D-0A1BC97F03DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
--- a/order/MBSE Demonstrator Materialliste.xlsx
+++ b/order/MBSE Demonstrator Materialliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimeiners/Documents/courses/prj/sose23/gimbal/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3E5C6-675B-D640-83DA-7CA677596E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B949231-841D-9A46-AA91-7C602532E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="1580" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Bestellliste MBSE Demonstrator (Arduino Gimbal)</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Bezug</t>
   </si>
   <si>
-    <t>Beschleudnigung &amp; Gyroskop, mit Head MPU-6050</t>
-  </si>
-  <si>
     <t>Reichelt</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>NodeMCU V3.4 ESP8266 ESP-12 E Lua CH340</t>
+  </si>
+  <si>
+    <t>Beschleunigung &amp; Gyroskop, mit Head MPU-6050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -233,26 +236,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -539,7 +539,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,32 +552,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -601,13 +601,13 @@
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="3">
         <v>2.99</v>
@@ -615,20 +615,20 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
-        <f>F4*G4</f>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H10" si="0">F4*G4</f>
         <v>2.99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>8.99</v>
@@ -636,23 +636,23 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
-        <f>F5*G5</f>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F6" s="3">
         <v>9.9499999999999993</v>
@@ -660,17 +660,17 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="7">
-        <f>F6*G6</f>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
         <v>29.849999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
         <v>6.5</v>
@@ -678,20 +678,20 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="8">
-        <f>F7*G7</f>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
         <v>20.99</v>
@@ -699,20 +699,20 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
-        <f>F8*G8</f>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
         <v>20.99</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3">
         <v>4.1500000000000004</v>
@@ -720,20 +720,20 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
-        <f>F9*G9</f>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3">
         <v>10.85</v>
@@ -741,20 +741,20 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="7">
-        <f>F10*G10</f>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
         <v>10.85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3">
         <v>0.99</v>
@@ -762,20 +762,20 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" ref="H11:H15" si="0">F11*G11</f>
+      <c r="H11" s="5">
+        <f t="shared" ref="H11:H15" si="1">F11*G11</f>
         <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
         <v>4.9000000000000004</v>
@@ -783,20 +783,20 @@
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3">
         <v>20.399999999999999</v>
@@ -804,20 +804,20 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>27</v>
+      <c r="A14" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>3771</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3">
         <v>4.3</v>
@@ -825,20 +825,20 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="0"/>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>28</v>
+      <c r="A15" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
         <v>7779</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3">
         <v>6.3</v>
@@ -846,8 +846,8 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="0"/>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
     </row>
